--- a/app/config/tables/triagem/forms/initrounds/initrounds.xlsx
+++ b/app/config/tables/triagem/forms/initrounds/initrounds.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C9C44C8-D784-42D5-A562-0649F8C33500}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E72949D-0352-4275-9246-AFA290E3678E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="7" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2239" uniqueCount="839">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2244" uniqueCount="838">
   <si>
     <t>setting_name</t>
   </si>
@@ -952,9 +952,6 @@
     <t>anos</t>
   </si>
   <si>
-    <t>select_one_inline</t>
-  </si>
-  <si>
     <t>bcgmaealt</t>
   </si>
   <si>
@@ -1258,9 +1255,6 @@
     <t>Sabe da data do nascimento ?</t>
   </si>
   <si>
-    <t>selected(data('exactdob'), '1')</t>
-  </si>
-  <si>
     <t>If exact dob is know date promt is shown</t>
   </si>
   <si>
@@ -2086,9 +2080,6 @@
     <t>If in study area</t>
   </si>
   <si>
-    <t>Where do you live?</t>
-  </si>
-  <si>
     <t>Select bairro</t>
   </si>
   <si>
@@ -2155,9 +2146,6 @@
     <t>If don't know</t>
   </si>
   <si>
-    <t>Describe where you live</t>
-  </si>
-  <si>
     <t>data('tabz99')</t>
   </si>
   <si>
@@ -2194,9 +2182,6 @@
     <t>If not i study area</t>
   </si>
   <si>
-    <t>Do people from the project come by your village?</t>
-  </si>
-  <si>
     <t>selected(data('tabq'),'1')</t>
   </si>
   <si>
@@ -2549,6 +2534,18 @@
   </si>
   <si>
     <t>bloodNA</t>
+  </si>
+  <si>
+    <t>Description of where the child lives</t>
+  </si>
+  <si>
+    <t>Do people from the project come by the village?</t>
+  </si>
+  <si>
+    <t>exactdob2</t>
+  </si>
+  <si>
+    <t>selected(data('exactdob2'), '1')</t>
   </si>
 </sst>
 </file>
@@ -3129,7 +3126,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -3138,7 +3135,7 @@
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -3195,7 +3192,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -3219,10 +3216,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D5" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="G5" s="2" t="b">
         <v>0</v>
@@ -3267,9 +3264,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D3902AA-ED11-47DF-B8BC-39F5B6F88EDF}">
   <dimension ref="A1:R871"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A206" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F130" sqref="F130"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3331,7 +3328,7 @@
         <v>28</v>
       </c>
       <c r="M1" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>144</v>
@@ -3356,10 +3353,10 @@
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="G3" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="M3" t="b">
         <v>1</v>
@@ -3385,13 +3382,13 @@
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -3409,16 +3406,16 @@
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G9" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="H9" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="P9" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3429,13 +3426,13 @@
         <v>22</v>
       </c>
       <c r="F10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G10" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="H10" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -3453,13 +3450,13 @@
         <v>36</v>
       </c>
       <c r="E13" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F13" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="G13" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3467,13 +3464,13 @@
         <v>20</v>
       </c>
       <c r="F14" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="G14" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="P14" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3481,26 +3478,26 @@
         <v>146</v>
       </c>
       <c r="E15" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F15" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C16" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F17" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="L17">
         <v>9999</v>
@@ -3508,15 +3505,15 @@
     </row>
     <row r="18" spans="1:18" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C19" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3524,18 +3521,18 @@
         <v>8</v>
       </c>
       <c r="F20" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="G20" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="P20" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
@@ -3546,10 +3543,10 @@
     <row r="23" spans="1:18" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="21"/>
       <c r="B23" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C23" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3565,24 +3562,24 @@
         <v>29</v>
       </c>
       <c r="F25" t="s">
-        <v>51</v>
+        <v>836</v>
       </c>
       <c r="G25" t="s">
+        <v>405</v>
+      </c>
+      <c r="H25" t="s">
         <v>406</v>
-      </c>
-      <c r="H25" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C26" t="s">
-        <v>408</v>
+        <v>837</v>
       </c>
       <c r="R26" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="27" spans="1:18" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3590,18 +3587,18 @@
         <v>50</v>
       </c>
       <c r="F27" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G27" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="H27" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
@@ -3612,16 +3609,16 @@
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="21"/>
       <c r="B30" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="26"/>
       <c r="B31" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C31" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
     </row>
     <row r="32" spans="1:18" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3640,10 +3637,10 @@
         <v>248</v>
       </c>
       <c r="G33" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="Q33" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
     </row>
     <row r="34" spans="2:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3653,13 +3650,13 @@
     </row>
     <row r="35" spans="2:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="C35" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="Q35" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
     </row>
     <row r="36" spans="2:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3669,27 +3666,27 @@
     </row>
     <row r="37" spans="2:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C37" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="Q37" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
     </row>
     <row r="38" spans="2:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F38" t="s">
         <v>294</v>
       </c>
       <c r="L38" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="Q38" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
     </row>
     <row r="39" spans="2:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3700,16 +3697,16 @@
         <v>294</v>
       </c>
       <c r="G39" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="H39" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="O39" t="b">
         <v>1</v>
       </c>
       <c r="Q39" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
     </row>
     <row r="40" spans="2:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3720,54 +3717,54 @@
         <v>88</v>
       </c>
       <c r="P40" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="Q40" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
     </row>
     <row r="41" spans="2:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F41" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="L41" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="Q41" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
     </row>
     <row r="42" spans="2:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="43" spans="2:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C43" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="Q43" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
     </row>
     <row r="44" spans="2:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F44" t="s">
         <v>295</v>
       </c>
       <c r="L44" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="Q44" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
     </row>
     <row r="45" spans="2:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3778,10 +3775,10 @@
         <v>295</v>
       </c>
       <c r="G45" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="H45" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="O45" t="b">
         <v>1</v>
@@ -3795,48 +3792,48 @@
         <v>89</v>
       </c>
       <c r="P46" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="47" spans="2:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D47" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F47" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="L47" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
     </row>
     <row r="48" spans="2:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="49" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C49" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="Q49" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
     </row>
     <row r="50" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D50" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F50" t="s">
         <v>296</v>
       </c>
       <c r="L50" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="Q50" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
     </row>
     <row r="51" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3847,10 +3844,10 @@
         <v>296</v>
       </c>
       <c r="G51" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="H51" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="O51" t="b">
         <v>1</v>
@@ -3864,23 +3861,23 @@
         <v>90</v>
       </c>
       <c r="P52" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="53" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D53" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F53" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="L53" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
     </row>
     <row r="54" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="55" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3890,7 +3887,7 @@
     </row>
     <row r="56" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="B56" t="s">
         <v>18</v>
@@ -3901,16 +3898,16 @@
         <v>20</v>
       </c>
       <c r="F57" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G57" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="H57" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="P57" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="58" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3918,7 +3915,7 @@
         <v>146</v>
       </c>
       <c r="E58" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F58" t="s">
         <v>285</v>
@@ -3926,21 +3923,21 @@
     </row>
     <row r="59" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C59" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="Q59" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D60" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F60" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L60">
         <v>99999</v>
@@ -3948,7 +3945,7 @@
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
@@ -3959,16 +3956,16 @@
     <row r="63" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="26"/>
       <c r="B63" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="30"/>
       <c r="B64" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C64" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
     </row>
     <row r="65" spans="2:17" x14ac:dyDescent="0.25">
@@ -3984,29 +3981,29 @@
         <v>29</v>
       </c>
       <c r="F66" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G66" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="H66" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="67" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C67" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="Q67" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="68" spans="2:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D68" t="s">
-        <v>306</v>
+        <v>36</v>
       </c>
       <c r="E68" t="s">
         <v>235</v>
@@ -4015,21 +4012,24 @@
         <v>235</v>
       </c>
       <c r="G68" t="s">
-        <v>684</v>
+        <v>719</v>
+      </c>
+      <c r="H68" t="s">
+        <v>720</v>
       </c>
       <c r="Q68" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
     </row>
     <row r="69" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C69" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="Q69" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="70" spans="2:17" x14ac:dyDescent="0.25">
@@ -4043,40 +4043,40 @@
         <v>242</v>
       </c>
       <c r="G70" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="H70" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="P70" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="71" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D71" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F71" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L71" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
     </row>
     <row r="72" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="73" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C73" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="Q73" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
     </row>
     <row r="74" spans="2:17" x14ac:dyDescent="0.25">
@@ -4090,40 +4090,40 @@
         <v>243</v>
       </c>
       <c r="G74" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="H74" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="P74" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="75" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D75" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F75" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L75" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
     </row>
     <row r="76" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="77" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C77" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="Q77" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
     </row>
     <row r="78" spans="2:17" x14ac:dyDescent="0.25">
@@ -4137,40 +4137,40 @@
         <v>244</v>
       </c>
       <c r="G78" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="H78" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="P78" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="79" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D79" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F79" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L79" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
     </row>
     <row r="80" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="81" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C81" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="Q81" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
     </row>
     <row r="82" spans="2:17" x14ac:dyDescent="0.25">
@@ -4184,40 +4184,40 @@
         <v>245</v>
       </c>
       <c r="G82" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="H82" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="P82" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="83" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D83" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F83" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L83" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
     </row>
     <row r="84" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="85" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C85" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="Q85" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
     </row>
     <row r="86" spans="2:17" x14ac:dyDescent="0.25">
@@ -4231,40 +4231,40 @@
         <v>246</v>
       </c>
       <c r="G86" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="H86" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="P86" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="87" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D87" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F87" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L87" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
     </row>
     <row r="88" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="89" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C89" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="Q89" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
     </row>
     <row r="90" spans="2:17" x14ac:dyDescent="0.25">
@@ -4278,40 +4278,40 @@
         <v>247</v>
       </c>
       <c r="G90" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="H90" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="P90" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="91" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D91" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F91" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L91" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
     </row>
     <row r="92" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="93" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C93" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="Q93" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
     </row>
     <row r="94" spans="2:17" x14ac:dyDescent="0.25">
@@ -4322,37 +4322,37 @@
         <v>250</v>
       </c>
       <c r="G94" t="s">
-        <v>707</v>
+        <v>834</v>
       </c>
       <c r="P94" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="95" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D95" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F95" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L95" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
     </row>
     <row r="96" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="97" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C97" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="Q97" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
     </row>
     <row r="98" spans="2:17" x14ac:dyDescent="0.25">
@@ -4363,13 +4363,13 @@
         <v>219</v>
       </c>
       <c r="G98" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="H98" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="P98" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="99" spans="2:17" x14ac:dyDescent="0.25">
@@ -4385,18 +4385,18 @@
     </row>
     <row r="100" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C100" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="Q100" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
     </row>
     <row r="101" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D101" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F101" t="s">
         <v>219</v>
@@ -4407,18 +4407,18 @@
     </row>
     <row r="102" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="103" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C103" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="Q103" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
     <row r="104" spans="2:17" x14ac:dyDescent="0.25">
@@ -4426,42 +4426,42 @@
         <v>8</v>
       </c>
       <c r="F104" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="G104" t="s">
-        <v>707</v>
+        <v>834</v>
       </c>
       <c r="P104" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="Q104" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
     </row>
     <row r="105" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="106" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="107" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="108" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C108" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="Q108" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
     </row>
     <row r="109" spans="2:17" x14ac:dyDescent="0.25">
@@ -4472,21 +4472,21 @@
         <v>29</v>
       </c>
       <c r="F109" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G109" t="s">
-        <v>720</v>
+        <v>835</v>
       </c>
     </row>
     <row r="110" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C110" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="Q110" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
     </row>
     <row r="111" spans="2:17" x14ac:dyDescent="0.25">
@@ -4500,7 +4500,7 @@
         <v>253</v>
       </c>
       <c r="G111" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
     </row>
     <row r="112" spans="2:17" x14ac:dyDescent="0.25">
@@ -4511,13 +4511,13 @@
         <v>235</v>
       </c>
       <c r="G112" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="H112" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="P112" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.25">
@@ -4525,23 +4525,23 @@
         <v>8</v>
       </c>
       <c r="F113" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G113" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="P113" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.25">
@@ -4552,16 +4552,16 @@
     <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A117" s="30"/>
       <c r="B117" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A118" s="29"/>
       <c r="B118" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C118" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.25">
@@ -4574,16 +4574,16 @@
         <v>8</v>
       </c>
       <c r="F120" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G120" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="H120" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="P120" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.25">
@@ -4591,16 +4591,16 @@
         <v>20</v>
       </c>
       <c r="F121" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G121" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H121" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="P121" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.25">
@@ -4611,16 +4611,16 @@
     <row r="123" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A123" s="29"/>
       <c r="B123" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A124" s="10"/>
       <c r="B124" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C124" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.25">
@@ -4636,10 +4636,10 @@
         <v>29</v>
       </c>
       <c r="F126" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="G126" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.25">
@@ -4649,10 +4649,10 @@
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C128" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
     </row>
     <row r="129" spans="2:17" x14ac:dyDescent="0.25">
@@ -4662,13 +4662,13 @@
     </row>
     <row r="130" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D130" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F130" t="s">
+        <v>796</v>
+      </c>
+      <c r="L130" t="s">
         <v>801</v>
-      </c>
-      <c r="L130" t="s">
-        <v>806</v>
       </c>
     </row>
     <row r="131" spans="2:17" x14ac:dyDescent="0.25">
@@ -4682,21 +4682,21 @@
         <v>292</v>
       </c>
       <c r="G131" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="H131" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="132" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C132" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="Q132" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="133" spans="2:17" x14ac:dyDescent="0.25">
@@ -4710,64 +4710,64 @@
         <v>293</v>
       </c>
       <c r="G133" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="H133" t="s">
         <v>135</v>
       </c>
       <c r="P133" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="134" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="135" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C135" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="Q135" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="136" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D136" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F136" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L136" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="137" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="Q137" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="138" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D138" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F138" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L138" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="139" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="140" spans="2:17" x14ac:dyDescent="0.25">
@@ -4778,24 +4778,24 @@
         <v>52</v>
       </c>
       <c r="F140" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G140" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="H140" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="141" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C141" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="Q141" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="142" spans="2:17" x14ac:dyDescent="0.25">
@@ -4803,21 +4803,21 @@
         <v>20</v>
       </c>
       <c r="F142" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G142" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="H142" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="P142" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="143" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="144" spans="2:17" x14ac:dyDescent="0.25">
@@ -4828,13 +4828,13 @@
         <v>52</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G144" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="H144" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
     </row>
     <row r="145" spans="1:17" x14ac:dyDescent="0.25">
@@ -4852,16 +4852,16 @@
         <v>8</v>
       </c>
       <c r="F147" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G147" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="H147" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="P147" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="148" spans="1:17" x14ac:dyDescent="0.25">
@@ -4875,10 +4875,10 @@
         <v>54</v>
       </c>
       <c r="G148" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="H148" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="149" spans="1:17" x14ac:dyDescent="0.25">
@@ -4888,22 +4888,22 @@
     </row>
     <row r="150" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="151" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A151" s="10"/>
       <c r="B151" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="152" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A152" s="17"/>
       <c r="B152" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C152" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="153" spans="1:17" x14ac:dyDescent="0.25">
@@ -4913,10 +4913,10 @@
     </row>
     <row r="154" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C154" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="155" spans="1:17" x14ac:dyDescent="0.25">
@@ -4927,22 +4927,22 @@
         <v>289</v>
       </c>
       <c r="G155" t="s">
+        <v>412</v>
+      </c>
+      <c r="H155" t="s">
+        <v>413</v>
+      </c>
+      <c r="I155" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="H155" t="s">
+      <c r="J155" t="s">
         <v>415</v>
       </c>
-      <c r="I155" s="3" t="s">
+      <c r="K155" t="s">
         <v>416</v>
       </c>
-      <c r="J155" t="s">
+      <c r="P155" t="s">
         <v>417</v>
-      </c>
-      <c r="K155" t="s">
-        <v>418</v>
-      </c>
-      <c r="P155" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="156" spans="1:17" x14ac:dyDescent="0.25">
@@ -4959,67 +4959,67 @@
     </row>
     <row r="157" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C157" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="I157" s="3"/>
       <c r="Q157" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="158" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D158" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F158" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I158" s="3"/>
       <c r="L158" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="159" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I159" s="3"/>
       <c r="Q159" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="160" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D160" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F160" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I160" s="3"/>
       <c r="L160" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="161" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I161" s="3"/>
     </row>
     <row r="162" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I162" s="3"/>
     </row>
     <row r="163" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C163" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="I163" s="3"/>
     </row>
@@ -5031,22 +5031,22 @@
         <v>290</v>
       </c>
       <c r="G164" t="s">
+        <v>424</v>
+      </c>
+      <c r="H164" t="s">
+        <v>425</v>
+      </c>
+      <c r="I164" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="H164" t="s">
-        <v>427</v>
-      </c>
-      <c r="I164" s="3" t="s">
-        <v>428</v>
-      </c>
       <c r="J164" t="s">
+        <v>415</v>
+      </c>
+      <c r="K164" t="s">
+        <v>416</v>
+      </c>
+      <c r="P164" t="s">
         <v>417</v>
-      </c>
-      <c r="K164" t="s">
-        <v>418</v>
-      </c>
-      <c r="P164" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="165" spans="2:17" x14ac:dyDescent="0.25">
@@ -5063,70 +5063,70 @@
     </row>
     <row r="166" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C166" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="I166" s="3"/>
       <c r="Q166" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="167" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D167" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F167" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I167" s="3"/>
       <c r="L167" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="168" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I168" s="3"/>
       <c r="Q168" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="169" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D169" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F169" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I169" s="3"/>
       <c r="L169" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="170" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I170" s="3"/>
     </row>
     <row r="171" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B171" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I171" s="3"/>
     </row>
     <row r="172" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B172" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C172" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="Q172" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
     </row>
     <row r="173" spans="2:17" x14ac:dyDescent="0.25">
@@ -5137,22 +5137,22 @@
         <v>291</v>
       </c>
       <c r="G173" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="H173" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="I173" s="3" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="J173" t="s">
+        <v>415</v>
+      </c>
+      <c r="K173" t="s">
+        <v>416</v>
+      </c>
+      <c r="P173" t="s">
         <v>417</v>
-      </c>
-      <c r="K173" t="s">
-        <v>418</v>
-      </c>
-      <c r="P173" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="174" spans="2:17" x14ac:dyDescent="0.25">
@@ -5169,58 +5169,58 @@
     </row>
     <row r="175" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B175" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C175" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="I175" s="3"/>
       <c r="Q175" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="176" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D176" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F176" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I176" s="3"/>
       <c r="L176" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
     </row>
     <row r="177" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B177" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I177" s="3"/>
       <c r="Q177" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="178" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D178" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F178" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I178" s="3"/>
       <c r="L178" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
     </row>
     <row r="179" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B179" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I179" s="3"/>
     </row>
     <row r="180" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B180" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I180" s="3"/>
     </row>
@@ -5233,17 +5233,17 @@
     <row r="182" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A182" s="17"/>
       <c r="B182" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I182" s="3"/>
     </row>
     <row r="183" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A183" s="10"/>
       <c r="B183" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C183" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="I183" s="3"/>
     </row>
@@ -5266,13 +5266,13 @@
     </row>
     <row r="185" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D185" t="s">
+        <v>430</v>
+      </c>
+      <c r="G185" t="s">
+        <v>431</v>
+      </c>
+      <c r="H185" t="s">
         <v>432</v>
-      </c>
-      <c r="G185" t="s">
-        <v>433</v>
-      </c>
-      <c r="H185" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="186" spans="1:18" x14ac:dyDescent="0.25">
@@ -5283,13 +5283,13 @@
         <v>35</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="H186" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="I186" s="1"/>
       <c r="J186" s="1"/>
@@ -5303,10 +5303,10 @@
     </row>
     <row r="187" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C187" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E187" s="1"/>
       <c r="F187" s="1"/>
@@ -5322,21 +5322,21 @@
       <c r="P187" s="1"/>
       <c r="Q187" s="1"/>
       <c r="R187" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="188" spans="1:18" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D188" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="H188" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="I188" s="1"/>
       <c r="J188" s="1"/>
@@ -5347,21 +5347,21 @@
       <c r="O188" s="1"/>
       <c r="P188" s="1"/>
       <c r="Q188" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="189" spans="1:18" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D189" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="H189" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I189" s="1"/>
       <c r="J189" s="1"/>
@@ -5372,12 +5372,12 @@
       <c r="O189" s="1"/>
       <c r="P189" s="1"/>
       <c r="Q189" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="190" spans="1:18" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B190" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F190" s="1"/>
       <c r="G190" s="1"/>
@@ -5400,13 +5400,13 @@
         <v>37</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="H191" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="I191" s="1"/>
       <c r="J191" s="1"/>
@@ -5420,10 +5420,10 @@
     </row>
     <row r="192" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B192" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C192" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="F192" s="1"/>
       <c r="G192" s="1"/>
@@ -5439,10 +5439,10 @@
     </row>
     <row r="193" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D193" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F193" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="G193" s="1"/>
       <c r="H193" s="1"/>
@@ -5450,7 +5450,7 @@
       <c r="J193" s="1"/>
       <c r="K193" s="1"/>
       <c r="L193" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="M193" s="1"/>
       <c r="N193" s="1"/>
@@ -5459,7 +5459,7 @@
     </row>
     <row r="194" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B194" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F194" s="1"/>
       <c r="G194" s="1"/>
@@ -5493,17 +5493,17 @@
     <row r="196" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A196" s="10"/>
       <c r="B196" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I196" s="3"/>
     </row>
     <row r="197" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A197" s="28"/>
       <c r="B197" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C197" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="I197" s="3"/>
     </row>
@@ -5526,14 +5526,14 @@
     </row>
     <row r="199" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D199" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F199" s="1"/>
       <c r="G199" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="H199" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="I199" s="1"/>
       <c r="J199" s="1"/>
@@ -5553,13 +5553,13 @@
         <v>29</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G200" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="H200" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="I200" s="1"/>
       <c r="J200" s="1"/>
@@ -5573,10 +5573,10 @@
     </row>
     <row r="201" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B201" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C201" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E201" s="1"/>
       <c r="F201" s="1"/>
@@ -5592,21 +5592,21 @@
       <c r="P201" s="1"/>
       <c r="Q201" s="1"/>
       <c r="R201" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="202" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D202" t="s">
+        <v>307</v>
+      </c>
+      <c r="F202" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="F202" s="1" t="s">
-        <v>309</v>
-      </c>
       <c r="G202" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="H202" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="I202" s="1"/>
       <c r="J202" s="1"/>
@@ -5617,21 +5617,21 @@
       <c r="O202" s="1"/>
       <c r="P202" s="1"/>
       <c r="Q202" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="203" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D203" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G203" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="H203" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="I203" s="1"/>
       <c r="J203" s="1"/>
@@ -5642,12 +5642,12 @@
       <c r="O203" s="1"/>
       <c r="P203" s="1"/>
       <c r="Q203" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="204" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B204" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F204" s="1"/>
       <c r="G204" s="1"/>
@@ -5670,13 +5670,13 @@
         <v>37</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G205" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="H205" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="I205" s="1"/>
       <c r="J205" s="1"/>
@@ -5690,10 +5690,10 @@
     </row>
     <row r="206" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B206" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C206" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="F206" s="1"/>
       <c r="G206" s="1"/>
@@ -5709,10 +5709,10 @@
     </row>
     <row r="207" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D207" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F207" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="G207" s="1"/>
       <c r="H207" s="1"/>
@@ -5720,7 +5720,7 @@
       <c r="J207" s="1"/>
       <c r="K207" s="1"/>
       <c r="L207" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="M207" s="1"/>
       <c r="N207" s="1"/>
@@ -5729,7 +5729,7 @@
     </row>
     <row r="208" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B208" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F208" s="1"/>
       <c r="G208" s="1"/>
@@ -5751,21 +5751,21 @@
     <row r="210" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A210" s="28"/>
       <c r="B210" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="211" spans="1:18" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="22"/>
       <c r="B211" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C211" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="212" spans="1:18" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B212" t="s">
         <v>18</v>
@@ -5779,32 +5779,32 @@
         <v>30</v>
       </c>
       <c r="F213" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G213" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H213" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="214" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B214" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C214" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="Q214" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="215" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D215" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F215" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L215">
         <v>6</v>
@@ -5812,10 +5812,10 @@
     </row>
     <row r="216" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D216" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F216" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="G216" s="1"/>
       <c r="H216" s="1"/>
@@ -5823,7 +5823,7 @@
       <c r="J216" s="1"/>
       <c r="K216" s="1"/>
       <c r="L216" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="M216" s="1"/>
       <c r="N216" s="1"/>
@@ -5832,18 +5832,18 @@
     </row>
     <row r="217" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B217" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="218" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B218" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C218" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="R218" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="219" spans="1:18" x14ac:dyDescent="0.25">
@@ -5854,18 +5854,18 @@
         <v>29</v>
       </c>
       <c r="F219" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="G219" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="H219" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="220" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B220" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="221" spans="1:18" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -5876,10 +5876,10 @@
     <row r="222" spans="1:18" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="23"/>
       <c r="B222" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C222" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="223" spans="1:18" x14ac:dyDescent="0.25">
@@ -5889,13 +5889,13 @@
     </row>
     <row r="224" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D224" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F224" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="L224" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
     </row>
     <row r="225" spans="2:18" x14ac:dyDescent="0.25">
@@ -5906,19 +5906,19 @@
         <v>269</v>
       </c>
       <c r="G225" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="H225" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="I225" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="H225" s="1" t="s">
+      <c r="J225" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="I225" s="1" t="s">
+      <c r="K225" s="1" t="s">
         <v>459</v>
-      </c>
-      <c r="J225" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="K225" s="1" t="s">
-        <v>461</v>
       </c>
       <c r="L225" s="1"/>
       <c r="M225" s="1"/>
@@ -5953,10 +5953,10 @@
     </row>
     <row r="227" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B227" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C227" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F227" s="1"/>
       <c r="G227" s="1"/>
@@ -5971,15 +5971,15 @@
       <c r="P227" s="1"/>
       <c r="Q227" s="1"/>
       <c r="R227" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="228" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D228" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F228" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G228" s="1"/>
       <c r="H228" s="1"/>
@@ -5987,7 +5987,7 @@
       <c r="J228" s="1"/>
       <c r="K228" s="1"/>
       <c r="L228" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="M228" s="1"/>
       <c r="N228" s="1"/>
@@ -5998,7 +5998,7 @@
     </row>
     <row r="229" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B229" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F229" s="1"/>
       <c r="G229" s="1"/>
@@ -6013,15 +6013,15 @@
       <c r="P229" s="1"/>
       <c r="Q229" s="1"/>
       <c r="R229" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="230" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D230" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G230" s="1"/>
       <c r="H230" s="1"/>
@@ -6029,7 +6029,7 @@
       <c r="J230" s="1"/>
       <c r="K230" s="1"/>
       <c r="L230" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="M230" s="1"/>
       <c r="N230" s="1"/>
@@ -6040,7 +6040,7 @@
     </row>
     <row r="231" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B231" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F231" s="1"/>
       <c r="G231" s="1"/>
@@ -6064,19 +6064,19 @@
         <v>270</v>
       </c>
       <c r="G232" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="H232" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="I232" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="H232" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="I232" s="1" t="s">
-        <v>469</v>
-      </c>
       <c r="J232" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="K232" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="L232" s="1"/>
       <c r="M232" s="1"/>
@@ -6099,18 +6099,18 @@
     </row>
     <row r="234" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B234" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C234" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="R234" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="235" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D235" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F235" s="1" t="s">
         <v>270</v>
@@ -6120,7 +6120,7 @@
       <c r="J235" s="1"/>
       <c r="K235" s="1"/>
       <c r="L235" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="M235" s="1"/>
       <c r="N235" s="1"/>
@@ -6131,7 +6131,7 @@
     </row>
     <row r="236" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B236" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F236" s="1"/>
       <c r="G236" s="1"/>
@@ -6148,10 +6148,10 @@
     </row>
     <row r="237" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B237" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C237" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F237" s="1"/>
       <c r="G237" s="1"/>
@@ -6165,22 +6165,22 @@
       <c r="P237" s="1"/>
       <c r="Q237" s="1"/>
       <c r="R237" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="238" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D238" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F238" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G238" s="1"/>
       <c r="H238" s="1"/>
       <c r="J238" s="1"/>
       <c r="K238" s="1"/>
       <c r="L238" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="M238" s="1"/>
       <c r="N238" s="1"/>
@@ -6191,7 +6191,7 @@
     </row>
     <row r="239" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B239" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F239" s="1"/>
       <c r="G239" s="1"/>
@@ -6205,22 +6205,22 @@
       <c r="P239" s="1"/>
       <c r="Q239" s="1"/>
       <c r="R239" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="240" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D240" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G240" s="1"/>
       <c r="H240" s="1"/>
       <c r="J240" s="1"/>
       <c r="K240" s="1"/>
       <c r="L240" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="M240" s="1"/>
       <c r="N240" s="1"/>
@@ -6230,7 +6230,7 @@
     </row>
     <row r="241" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B241" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F241" s="1"/>
       <c r="G241" s="1"/>
@@ -6277,19 +6277,19 @@
         <v>271</v>
       </c>
       <c r="G244" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="H244" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="I244" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="H244" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="I244" s="1" t="s">
-        <v>477</v>
-      </c>
       <c r="J244" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="K244" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="L244" s="1"/>
       <c r="M244" s="1"/>
@@ -6324,10 +6324,10 @@
     </row>
     <row r="246" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B246" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C246" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F246" s="1"/>
       <c r="G246" s="1"/>
@@ -6342,15 +6342,15 @@
       <c r="P246" s="1"/>
       <c r="Q246" s="1"/>
       <c r="R246" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="247" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D247" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F247" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G247" s="1"/>
       <c r="H247" s="1"/>
@@ -6358,7 +6358,7 @@
       <c r="J247" s="1"/>
       <c r="K247" s="1"/>
       <c r="L247" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="M247" s="1"/>
       <c r="N247" s="1"/>
@@ -6369,7 +6369,7 @@
     </row>
     <row r="248" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B248" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F248" s="1"/>
       <c r="G248" s="1"/>
@@ -6384,15 +6384,15 @@
       <c r="P248" s="1"/>
       <c r="Q248" s="1"/>
       <c r="R248" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="249" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D249" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F249" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G249" s="1"/>
       <c r="H249" s="1"/>
@@ -6400,7 +6400,7 @@
       <c r="J249" s="1"/>
       <c r="K249" s="1"/>
       <c r="L249" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="M249" s="1"/>
       <c r="N249" s="1"/>
@@ -6411,7 +6411,7 @@
     </row>
     <row r="250" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B250" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F250" s="1"/>
       <c r="G250" s="1"/>
@@ -6435,19 +6435,19 @@
         <v>272</v>
       </c>
       <c r="G251" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="H251" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="I251" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="H251" s="1" t="s">
+      <c r="J251" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="I251" s="1" t="s">
+      <c r="K251" s="1" t="s">
         <v>483</v>
-      </c>
-      <c r="J251" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="K251" s="1" t="s">
-        <v>485</v>
       </c>
       <c r="L251" s="1"/>
       <c r="M251" s="1"/>
@@ -6470,18 +6470,18 @@
     </row>
     <row r="253" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B253" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C253" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="R253" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="254" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D254" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F254" s="1" t="s">
         <v>272</v>
@@ -6491,7 +6491,7 @@
       <c r="J254" s="1"/>
       <c r="K254" s="1"/>
       <c r="L254" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="M254" s="1"/>
       <c r="N254" s="1"/>
@@ -6502,7 +6502,7 @@
     </row>
     <row r="255" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B255" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F255" s="1"/>
       <c r="G255" s="1"/>
@@ -6519,10 +6519,10 @@
     </row>
     <row r="256" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B256" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C256" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="F256" s="1"/>
       <c r="G256" s="1"/>
@@ -6536,22 +6536,22 @@
       <c r="P256" s="1"/>
       <c r="Q256" s="1"/>
       <c r="R256" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="257" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D257" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F257" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G257" s="1"/>
       <c r="H257" s="1"/>
       <c r="J257" s="1"/>
       <c r="K257" s="1"/>
       <c r="L257" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="M257" s="1"/>
       <c r="N257" s="1"/>
@@ -6562,7 +6562,7 @@
     </row>
     <row r="258" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B258" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F258" s="1"/>
       <c r="G258" s="1"/>
@@ -6576,22 +6576,22 @@
       <c r="P258" s="1"/>
       <c r="Q258" s="1"/>
       <c r="R258" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="259" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D259" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F259" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G259" s="1"/>
       <c r="H259" s="1"/>
       <c r="J259" s="1"/>
       <c r="K259" s="1"/>
       <c r="L259" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="M259" s="1"/>
       <c r="N259" s="1"/>
@@ -6602,7 +6602,7 @@
     </row>
     <row r="260" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B260" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F260" s="1"/>
       <c r="G260" s="1"/>
@@ -6626,19 +6626,19 @@
         <v>273</v>
       </c>
       <c r="G261" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="H261" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="I261" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="H261" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="I261" s="1" t="s">
-        <v>493</v>
-      </c>
       <c r="J261" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="K261" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="L261" s="1"/>
       <c r="M261" s="1"/>
@@ -6660,18 +6660,18 @@
     </row>
     <row r="263" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B263" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C263" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="R263" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="264" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D264" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F264" s="1" t="s">
         <v>273</v>
@@ -6681,7 +6681,7 @@
       <c r="J264" s="1"/>
       <c r="K264" s="1"/>
       <c r="L264" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="M264" s="1"/>
       <c r="N264" s="1"/>
@@ -6692,7 +6692,7 @@
     </row>
     <row r="265" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B265" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F265" s="1"/>
       <c r="G265" s="1"/>
@@ -6709,10 +6709,10 @@
     </row>
     <row r="266" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B266" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C266" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F266" s="1"/>
       <c r="G266" s="1"/>
@@ -6726,22 +6726,22 @@
       <c r="P266" s="1"/>
       <c r="Q266" s="1"/>
       <c r="R266" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="267" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D267" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F267" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G267" s="1"/>
       <c r="H267" s="1"/>
       <c r="J267" s="1"/>
       <c r="K267" s="1"/>
       <c r="L267" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="M267" s="1"/>
       <c r="N267" s="1"/>
@@ -6752,7 +6752,7 @@
     </row>
     <row r="268" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B268" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F268" s="1"/>
       <c r="G268" s="1"/>
@@ -6766,22 +6766,22 @@
       <c r="P268" s="1"/>
       <c r="Q268" s="1"/>
       <c r="R268" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="269" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D269" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F269" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G269" s="1"/>
       <c r="H269" s="1"/>
       <c r="J269" s="1"/>
       <c r="K269" s="1"/>
       <c r="L269" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="M269" s="1"/>
       <c r="N269" s="1"/>
@@ -6792,7 +6792,7 @@
     </row>
     <row r="270" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B270" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F270" s="1"/>
       <c r="G270" s="1"/>
@@ -6816,19 +6816,19 @@
         <v>274</v>
       </c>
       <c r="G271" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="H271" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="I271" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="H271" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="I271" s="1" t="s">
-        <v>500</v>
-      </c>
       <c r="J271" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="K271" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="L271" s="1"/>
       <c r="M271" s="1"/>
@@ -6850,18 +6850,18 @@
     </row>
     <row r="273" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B273" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C273" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="R273" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="274" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D274" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F274" s="1" t="s">
         <v>274</v>
@@ -6871,7 +6871,7 @@
       <c r="J274" s="1"/>
       <c r="K274" s="1"/>
       <c r="L274" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="M274" s="1"/>
       <c r="N274" s="1"/>
@@ -6882,7 +6882,7 @@
     </row>
     <row r="275" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B275" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F275" s="1"/>
       <c r="G275" s="1"/>
@@ -6899,10 +6899,10 @@
     </row>
     <row r="276" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B276" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C276" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="F276" s="1"/>
       <c r="G276" s="1"/>
@@ -6916,22 +6916,22 @@
       <c r="P276" s="1"/>
       <c r="Q276" s="1"/>
       <c r="R276" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="277" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D277" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F277" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G277" s="1"/>
       <c r="H277" s="1"/>
       <c r="J277" s="1"/>
       <c r="K277" s="1"/>
       <c r="L277" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="M277" s="1"/>
       <c r="N277" s="1"/>
@@ -6942,7 +6942,7 @@
     </row>
     <row r="278" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B278" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F278" s="1"/>
       <c r="G278" s="1"/>
@@ -6956,22 +6956,22 @@
       <c r="P278" s="1"/>
       <c r="Q278" s="1"/>
       <c r="R278" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="279" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D279" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F279" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G279" s="1"/>
       <c r="H279" s="1"/>
       <c r="J279" s="1"/>
       <c r="K279" s="1"/>
       <c r="L279" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="M279" s="1"/>
       <c r="N279" s="1"/>
@@ -6982,7 +6982,7 @@
     </row>
     <row r="280" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B280" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F280" s="1"/>
       <c r="G280" s="1"/>
@@ -7016,19 +7016,19 @@
         <v>275</v>
       </c>
       <c r="G283" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="H283" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="I283" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="H283" s="1" t="s">
+      <c r="J283" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="I283" s="1" t="s">
+      <c r="K283" s="1" t="s">
         <v>507</v>
-      </c>
-      <c r="J283" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="K283" s="1" t="s">
-        <v>509</v>
       </c>
       <c r="L283" s="1"/>
       <c r="M283" s="1"/>
@@ -7063,10 +7063,10 @@
     </row>
     <row r="285" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B285" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C285" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F285" s="1"/>
       <c r="G285" s="1"/>
@@ -7081,15 +7081,15 @@
       <c r="P285" s="1"/>
       <c r="Q285" s="1"/>
       <c r="R285" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="286" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D286" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F286" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G286" s="1"/>
       <c r="H286" s="1"/>
@@ -7097,7 +7097,7 @@
       <c r="J286" s="1"/>
       <c r="K286" s="1"/>
       <c r="L286" s="1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="M286" s="1"/>
       <c r="N286" s="1"/>
@@ -7108,7 +7108,7 @@
     </row>
     <row r="287" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B287" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F287" s="1"/>
       <c r="G287" s="1"/>
@@ -7123,15 +7123,15 @@
       <c r="P287" s="1"/>
       <c r="Q287" s="1"/>
       <c r="R287" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="288" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D288" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F288" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G288" s="1"/>
       <c r="H288" s="1"/>
@@ -7139,7 +7139,7 @@
       <c r="J288" s="1"/>
       <c r="K288" s="1"/>
       <c r="L288" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="M288" s="1"/>
       <c r="N288" s="1"/>
@@ -7150,7 +7150,7 @@
     </row>
     <row r="289" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B289" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F289" s="1"/>
       <c r="G289" s="1"/>
@@ -7174,19 +7174,19 @@
         <v>276</v>
       </c>
       <c r="G290" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="H290" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="I290" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="H290" s="1" t="s">
+      <c r="J290" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="I290" s="1" t="s">
+      <c r="K290" s="1" t="s">
         <v>515</v>
-      </c>
-      <c r="J290" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="K290" s="1" t="s">
-        <v>517</v>
       </c>
       <c r="L290" s="1"/>
       <c r="M290" s="1"/>
@@ -7209,18 +7209,18 @@
     </row>
     <row r="292" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B292" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C292" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="R292" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="293" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D293" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F293" s="1" t="s">
         <v>276</v>
@@ -7230,7 +7230,7 @@
       <c r="J293" s="1"/>
       <c r="K293" s="1"/>
       <c r="L293" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="M293" s="1"/>
       <c r="N293" s="1"/>
@@ -7241,7 +7241,7 @@
     </row>
     <row r="294" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B294" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F294" s="1"/>
       <c r="G294" s="1"/>
@@ -7258,10 +7258,10 @@
     </row>
     <row r="295" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B295" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C295" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="F295" s="1"/>
       <c r="G295" s="1"/>
@@ -7275,22 +7275,22 @@
       <c r="P295" s="1"/>
       <c r="Q295" s="1"/>
       <c r="R295" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="296" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D296" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F296" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G296" s="1"/>
       <c r="H296" s="1"/>
       <c r="J296" s="1"/>
       <c r="K296" s="1"/>
       <c r="L296" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="M296" s="1"/>
       <c r="N296" s="1"/>
@@ -7301,7 +7301,7 @@
     </row>
     <row r="297" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B297" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F297" s="1"/>
       <c r="G297" s="1"/>
@@ -7315,22 +7315,22 @@
       <c r="P297" s="1"/>
       <c r="Q297" s="1"/>
       <c r="R297" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="298" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D298" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F298" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G298" s="1"/>
       <c r="H298" s="1"/>
       <c r="J298" s="1"/>
       <c r="K298" s="1"/>
       <c r="L298" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="M298" s="1"/>
       <c r="N298" s="1"/>
@@ -7341,7 +7341,7 @@
     </row>
     <row r="299" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B299" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F299" s="1"/>
       <c r="G299" s="1"/>
@@ -7365,19 +7365,19 @@
         <v>277</v>
       </c>
       <c r="G300" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="H300" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="I300" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="H300" s="1" t="s">
+      <c r="J300" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="I300" s="1" t="s">
+      <c r="K300" s="1" t="s">
         <v>525</v>
-      </c>
-      <c r="J300" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="K300" s="1" t="s">
-        <v>527</v>
       </c>
       <c r="L300" s="1"/>
       <c r="M300" s="1"/>
@@ -7399,18 +7399,18 @@
     </row>
     <row r="302" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B302" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C302" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="R302" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="303" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D303" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F303" s="1" t="s">
         <v>277</v>
@@ -7420,7 +7420,7 @@
       <c r="J303" s="1"/>
       <c r="K303" s="1"/>
       <c r="L303" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="M303" s="1"/>
       <c r="N303" s="1"/>
@@ -7431,7 +7431,7 @@
     </row>
     <row r="304" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B304" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F304" s="1"/>
       <c r="G304" s="1"/>
@@ -7448,10 +7448,10 @@
     </row>
     <row r="305" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B305" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C305" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F305" s="1"/>
       <c r="G305" s="1"/>
@@ -7465,22 +7465,22 @@
       <c r="P305" s="1"/>
       <c r="Q305" s="1"/>
       <c r="R305" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="306" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D306" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F306" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G306" s="1"/>
       <c r="H306" s="1"/>
       <c r="J306" s="1"/>
       <c r="K306" s="1"/>
       <c r="L306" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="M306" s="1"/>
       <c r="N306" s="1"/>
@@ -7491,7 +7491,7 @@
     </row>
     <row r="307" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B307" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F307" s="1"/>
       <c r="G307" s="1"/>
@@ -7505,22 +7505,22 @@
       <c r="P307" s="1"/>
       <c r="Q307" s="1"/>
       <c r="R307" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="308" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D308" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F308" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G308" s="1"/>
       <c r="H308" s="1"/>
       <c r="J308" s="1"/>
       <c r="K308" s="1"/>
       <c r="L308" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="M308" s="1"/>
       <c r="N308" s="1"/>
@@ -7531,7 +7531,7 @@
     </row>
     <row r="309" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B309" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F309" s="1"/>
       <c r="G309" s="1"/>
@@ -7555,19 +7555,19 @@
         <v>278</v>
       </c>
       <c r="G310" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="H310" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="I310" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="H310" s="1" t="s">
+      <c r="J310" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="I310" s="1" t="s">
+      <c r="K310" s="1" t="s">
         <v>534</v>
-      </c>
-      <c r="J310" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="K310" s="1" t="s">
-        <v>536</v>
       </c>
       <c r="L310" s="1"/>
       <c r="M310" s="1"/>
@@ -7589,18 +7589,18 @@
     </row>
     <row r="312" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B312" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C312" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="R312" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="313" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D313" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F313" s="1" t="s">
         <v>278</v>
@@ -7610,7 +7610,7 @@
       <c r="J313" s="1"/>
       <c r="K313" s="1"/>
       <c r="L313" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="M313" s="1"/>
       <c r="N313" s="1"/>
@@ -7621,7 +7621,7 @@
     </row>
     <row r="314" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B314" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F314" s="1"/>
       <c r="G314" s="1"/>
@@ -7638,10 +7638,10 @@
     </row>
     <row r="315" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B315" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C315" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="F315" s="1"/>
       <c r="G315" s="1"/>
@@ -7655,22 +7655,22 @@
       <c r="P315" s="1"/>
       <c r="Q315" s="1"/>
       <c r="R315" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="316" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D316" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F316" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G316" s="1"/>
       <c r="H316" s="1"/>
       <c r="J316" s="1"/>
       <c r="K316" s="1"/>
       <c r="L316" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="M316" s="1"/>
       <c r="N316" s="1"/>
@@ -7681,7 +7681,7 @@
     </row>
     <row r="317" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B317" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F317" s="1"/>
       <c r="G317" s="1"/>
@@ -7695,22 +7695,22 @@
       <c r="P317" s="1"/>
       <c r="Q317" s="1"/>
       <c r="R317" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="318" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D318" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F318" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G318" s="1"/>
       <c r="H318" s="1"/>
       <c r="J318" s="1"/>
       <c r="K318" s="1"/>
       <c r="L318" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="M318" s="1"/>
       <c r="N318" s="1"/>
@@ -7721,7 +7721,7 @@
     </row>
     <row r="319" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B319" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F319" s="1"/>
       <c r="G319" s="1"/>
@@ -7755,19 +7755,19 @@
         <v>279</v>
       </c>
       <c r="G322" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="H322" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="I322" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="H322" s="1" t="s">
+      <c r="J322" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="I322" s="1" t="s">
+      <c r="K322" s="1" t="s">
         <v>543</v>
-      </c>
-      <c r="J322" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="K322" s="1" t="s">
-        <v>545</v>
       </c>
       <c r="L322" s="1"/>
       <c r="M322" s="1"/>
@@ -7802,10 +7802,10 @@
     </row>
     <row r="324" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B324" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C324" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F324" s="1"/>
       <c r="G324" s="1"/>
@@ -7820,15 +7820,15 @@
       <c r="P324" s="1"/>
       <c r="Q324" s="1"/>
       <c r="R324" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="325" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D325" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F325" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G325" s="1"/>
       <c r="H325" s="1"/>
@@ -7836,7 +7836,7 @@
       <c r="J325" s="1"/>
       <c r="K325" s="1"/>
       <c r="L325" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="M325" s="1"/>
       <c r="N325" s="1"/>
@@ -7847,7 +7847,7 @@
     </row>
     <row r="326" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B326" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F326" s="1"/>
       <c r="G326" s="1"/>
@@ -7862,15 +7862,15 @@
       <c r="P326" s="1"/>
       <c r="Q326" s="1"/>
       <c r="R326" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="327" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D327" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F327" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G327" s="1"/>
       <c r="H327" s="1"/>
@@ -7878,7 +7878,7 @@
       <c r="J327" s="1"/>
       <c r="K327" s="1"/>
       <c r="L327" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="M327" s="1"/>
       <c r="N327" s="1"/>
@@ -7889,7 +7889,7 @@
     </row>
     <row r="328" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B328" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F328" s="1"/>
       <c r="G328" s="1"/>
@@ -7913,19 +7913,19 @@
         <v>280</v>
       </c>
       <c r="G329" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="H329" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="I329" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="H329" s="1" t="s">
+      <c r="J329" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="I329" s="1" t="s">
+      <c r="K329" s="1" t="s">
         <v>551</v>
-      </c>
-      <c r="J329" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="K329" s="1" t="s">
-        <v>553</v>
       </c>
       <c r="L329" s="1"/>
       <c r="M329" s="1"/>
@@ -7948,18 +7948,18 @@
     </row>
     <row r="331" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B331" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C331" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="R331" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="332" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D332" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F332" s="1" t="s">
         <v>280</v>
@@ -7969,7 +7969,7 @@
       <c r="J332" s="1"/>
       <c r="K332" s="1"/>
       <c r="L332" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="M332" s="1"/>
       <c r="N332" s="1"/>
@@ -7980,7 +7980,7 @@
     </row>
     <row r="333" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B333" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F333" s="1"/>
       <c r="G333" s="1"/>
@@ -7997,10 +7997,10 @@
     </row>
     <row r="334" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B334" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C334" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="F334" s="1"/>
       <c r="G334" s="1"/>
@@ -8014,22 +8014,22 @@
       <c r="P334" s="1"/>
       <c r="Q334" s="1"/>
       <c r="R334" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="335" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D335" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F335" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G335" s="1"/>
       <c r="H335" s="1"/>
       <c r="J335" s="1"/>
       <c r="K335" s="1"/>
       <c r="L335" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="M335" s="1"/>
       <c r="N335" s="1"/>
@@ -8040,7 +8040,7 @@
     </row>
     <row r="336" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B336" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F336" s="1"/>
       <c r="G336" s="1"/>
@@ -8054,22 +8054,22 @@
       <c r="P336" s="1"/>
       <c r="Q336" s="1"/>
       <c r="R336" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="337" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D337" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F337" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G337" s="1"/>
       <c r="H337" s="1"/>
       <c r="J337" s="1"/>
       <c r="K337" s="1"/>
       <c r="L337" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="M337" s="1"/>
       <c r="N337" s="1"/>
@@ -8080,7 +8080,7 @@
     </row>
     <row r="338" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B338" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F338" s="1"/>
       <c r="G338" s="1"/>
@@ -8104,19 +8104,19 @@
         <v>281</v>
       </c>
       <c r="G339" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="H339" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="I339" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="H339" s="1" t="s">
+      <c r="J339" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="I339" s="1" t="s">
+      <c r="K339" s="1" t="s">
         <v>561</v>
-      </c>
-      <c r="J339" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="K339" s="1" t="s">
-        <v>563</v>
       </c>
       <c r="L339" s="1"/>
       <c r="M339" s="1"/>
@@ -8138,18 +8138,18 @@
     </row>
     <row r="341" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B341" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C341" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="R341" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="342" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D342" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F342" s="1" t="s">
         <v>281</v>
@@ -8159,7 +8159,7 @@
       <c r="J342" s="1"/>
       <c r="K342" s="1"/>
       <c r="L342" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="M342" s="1"/>
       <c r="N342" s="1"/>
@@ -8170,7 +8170,7 @@
     </row>
     <row r="343" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B343" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F343" s="1"/>
       <c r="G343" s="1"/>
@@ -8187,10 +8187,10 @@
     </row>
     <row r="344" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B344" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C344" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="F344" s="1"/>
       <c r="G344" s="1"/>
@@ -8204,22 +8204,22 @@
       <c r="P344" s="1"/>
       <c r="Q344" s="1"/>
       <c r="R344" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="345" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D345" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F345" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G345" s="1"/>
       <c r="H345" s="1"/>
       <c r="J345" s="1"/>
       <c r="K345" s="1"/>
       <c r="L345" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="M345" s="1"/>
       <c r="N345" s="1"/>
@@ -8230,7 +8230,7 @@
     </row>
     <row r="346" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B346" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F346" s="1"/>
       <c r="G346" s="1"/>
@@ -8244,22 +8244,22 @@
       <c r="P346" s="1"/>
       <c r="Q346" s="1"/>
       <c r="R346" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="347" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D347" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F347" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G347" s="1"/>
       <c r="H347" s="1"/>
       <c r="J347" s="1"/>
       <c r="K347" s="1"/>
       <c r="L347" s="1" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="M347" s="1"/>
       <c r="N347" s="1"/>
@@ -8270,7 +8270,7 @@
     </row>
     <row r="348" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B348" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F348" s="1"/>
       <c r="G348" s="1"/>
@@ -8294,19 +8294,19 @@
         <v>282</v>
       </c>
       <c r="G349" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="H349" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="I349" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="H349" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="I349" s="1" t="s">
-        <v>570</v>
-      </c>
       <c r="J349" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="K349" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="L349" s="1"/>
       <c r="M349" s="1"/>
@@ -8328,18 +8328,18 @@
     </row>
     <row r="351" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B351" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C351" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="R351" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="352" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D352" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F352" s="1" t="s">
         <v>282</v>
@@ -8349,7 +8349,7 @@
       <c r="J352" s="1"/>
       <c r="K352" s="1"/>
       <c r="L352" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="M352" s="1"/>
       <c r="N352" s="1"/>
@@ -8360,7 +8360,7 @@
     </row>
     <row r="353" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B353" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F353" s="1"/>
       <c r="G353" s="1"/>
@@ -8377,10 +8377,10 @@
     </row>
     <row r="354" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B354" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C354" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="F354" s="1"/>
       <c r="G354" s="1"/>
@@ -8394,22 +8394,22 @@
       <c r="P354" s="1"/>
       <c r="Q354" s="1"/>
       <c r="R354" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="355" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D355" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F355" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G355" s="1"/>
       <c r="H355" s="1"/>
       <c r="J355" s="1"/>
       <c r="K355" s="1"/>
       <c r="L355" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="M355" s="1"/>
       <c r="N355" s="1"/>
@@ -8420,7 +8420,7 @@
     </row>
     <row r="356" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B356" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F356" s="1"/>
       <c r="G356" s="1"/>
@@ -8434,22 +8434,22 @@
       <c r="P356" s="1"/>
       <c r="Q356" s="1"/>
       <c r="R356" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="357" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D357" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F357" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G357" s="1"/>
       <c r="H357" s="1"/>
       <c r="J357" s="1"/>
       <c r="K357" s="1"/>
       <c r="L357" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="M357" s="1"/>
       <c r="N357" s="1"/>
@@ -8460,7 +8460,7 @@
     </row>
     <row r="358" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B358" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F358" s="1"/>
       <c r="G358" s="1"/>
@@ -8494,19 +8494,19 @@
         <v>283</v>
       </c>
       <c r="G361" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="H361" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="I361" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="H361" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="I361" s="1" t="s">
-        <v>577</v>
-      </c>
       <c r="J361" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="K361" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="L361" s="1"/>
       <c r="M361" s="1"/>
@@ -8541,10 +8541,10 @@
     </row>
     <row r="363" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B363" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C363" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="F363" s="1"/>
       <c r="G363" s="1"/>
@@ -8559,15 +8559,15 @@
       <c r="P363" s="1"/>
       <c r="Q363" s="1"/>
       <c r="R363" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="364" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D364" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F364" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G364" s="1"/>
       <c r="H364" s="1"/>
@@ -8575,7 +8575,7 @@
       <c r="J364" s="1"/>
       <c r="K364" s="1"/>
       <c r="L364" s="1" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="M364" s="1"/>
       <c r="N364" s="1"/>
@@ -8586,7 +8586,7 @@
     </row>
     <row r="365" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B365" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F365" s="1"/>
       <c r="G365" s="1"/>
@@ -8601,15 +8601,15 @@
       <c r="P365" s="1"/>
       <c r="Q365" s="1"/>
       <c r="R365" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="366" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D366" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F366" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G366" s="1"/>
       <c r="H366" s="1"/>
@@ -8617,7 +8617,7 @@
       <c r="J366" s="1"/>
       <c r="K366" s="1"/>
       <c r="L366" s="1" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="M366" s="1"/>
       <c r="N366" s="1"/>
@@ -8628,7 +8628,7 @@
     </row>
     <row r="367" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B367" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F367" s="1"/>
       <c r="G367" s="1"/>
@@ -8652,19 +8652,19 @@
         <v>284</v>
       </c>
       <c r="G368" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="H368" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="I368" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="H368" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="I368" s="1" t="s">
-        <v>583</v>
-      </c>
       <c r="J368" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="K368" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="L368" s="1"/>
       <c r="M368" s="1"/>
@@ -8686,18 +8686,18 @@
     </row>
     <row r="370" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B370" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C370" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="R370" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="371" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D371" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F371" s="1" t="s">
         <v>282</v>
@@ -8707,7 +8707,7 @@
       <c r="J371" s="1"/>
       <c r="K371" s="1"/>
       <c r="L371" s="1" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="M371" s="1"/>
       <c r="N371" s="1"/>
@@ -8718,7 +8718,7 @@
     </row>
     <row r="372" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B372" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F372" s="1"/>
       <c r="G372" s="1"/>
@@ -8735,10 +8735,10 @@
     </row>
     <row r="373" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B373" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C373" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F373" s="1"/>
       <c r="G373" s="1"/>
@@ -8752,22 +8752,22 @@
       <c r="P373" s="1"/>
       <c r="Q373" s="1"/>
       <c r="R373" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="374" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D374" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F374" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G374" s="1"/>
       <c r="H374" s="1"/>
       <c r="J374" s="1"/>
       <c r="K374" s="1"/>
       <c r="L374" s="1" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="M374" s="1"/>
       <c r="N374" s="1"/>
@@ -8778,7 +8778,7 @@
     </row>
     <row r="375" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B375" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F375" s="1"/>
       <c r="G375" s="1"/>
@@ -8792,22 +8792,22 @@
       <c r="P375" s="1"/>
       <c r="Q375" s="1"/>
       <c r="R375" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="376" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D376" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F376" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G376" s="1"/>
       <c r="H376" s="1"/>
       <c r="J376" s="1"/>
       <c r="K376" s="1"/>
       <c r="L376" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="M376" s="1"/>
       <c r="N376" s="1"/>
@@ -8818,7 +8818,7 @@
     </row>
     <row r="377" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B377" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F377" s="1"/>
       <c r="G377" s="1"/>
@@ -8842,7 +8842,7 @@
     <row r="379" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A379" s="23"/>
       <c r="B379" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F379" s="1"/>
       <c r="G379" s="1"/>
@@ -8860,13 +8860,13 @@
     <row r="380" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A380" s="24"/>
       <c r="B380" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C380" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="R380" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="381" spans="1:18" x14ac:dyDescent="0.25">
@@ -8879,13 +8879,13 @@
     </row>
     <row r="382" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D382" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F382" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="L382" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
     </row>
     <row r="383" spans="1:18" x14ac:dyDescent="0.25">
@@ -8896,7 +8896,7 @@
         <v>264</v>
       </c>
       <c r="F383" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G383" t="s">
         <v>190</v>
@@ -8910,10 +8910,10 @@
         <v>264</v>
       </c>
       <c r="F384" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G384" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="385" spans="2:7" x14ac:dyDescent="0.25">
@@ -8934,10 +8934,10 @@
         <v>264</v>
       </c>
       <c r="F387" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G387" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="388" spans="2:7" x14ac:dyDescent="0.25">
@@ -8948,10 +8948,10 @@
         <v>264</v>
       </c>
       <c r="F388" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G388" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="389" spans="2:7" x14ac:dyDescent="0.25">
@@ -8962,10 +8962,10 @@
         <v>264</v>
       </c>
       <c r="F389" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G389" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="390" spans="2:7" x14ac:dyDescent="0.25">
@@ -8986,10 +8986,10 @@
         <v>264</v>
       </c>
       <c r="F392" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G392" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="393" spans="2:7" x14ac:dyDescent="0.25">
@@ -9000,10 +9000,10 @@
         <v>264</v>
       </c>
       <c r="F393" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G393" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="394" spans="2:7" x14ac:dyDescent="0.25">
@@ -9014,10 +9014,10 @@
         <v>264</v>
       </c>
       <c r="F394" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G394" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="395" spans="2:7" x14ac:dyDescent="0.25">
@@ -9038,10 +9038,10 @@
         <v>264</v>
       </c>
       <c r="F397" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G397" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="398" spans="2:7" x14ac:dyDescent="0.25">
@@ -9052,10 +9052,10 @@
         <v>264</v>
       </c>
       <c r="F398" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G398" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="399" spans="2:7" x14ac:dyDescent="0.25">
@@ -9066,10 +9066,10 @@
         <v>264</v>
       </c>
       <c r="F399" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G399" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="400" spans="2:7" x14ac:dyDescent="0.25">
@@ -9090,10 +9090,10 @@
         <v>264</v>
       </c>
       <c r="F402" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G402" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="403" spans="1:16" x14ac:dyDescent="0.25">
@@ -9104,10 +9104,10 @@
         <v>264</v>
       </c>
       <c r="F403" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G403" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="404" spans="1:16" x14ac:dyDescent="0.25">
@@ -9128,10 +9128,10 @@
         <v>264</v>
       </c>
       <c r="F406" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G406" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="407" spans="1:16" x14ac:dyDescent="0.25">
@@ -9142,10 +9142,10 @@
         <v>264</v>
       </c>
       <c r="F407" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G407" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="408" spans="1:16" x14ac:dyDescent="0.25">
@@ -9156,10 +9156,10 @@
         <v>264</v>
       </c>
       <c r="F408" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G408" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="409" spans="1:16" x14ac:dyDescent="0.25">
@@ -9170,7 +9170,7 @@
     <row r="410" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A410" s="24"/>
       <c r="B410" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="411" spans="1:16" x14ac:dyDescent="0.25">
@@ -9200,13 +9200,13 @@
         <v>52</v>
       </c>
       <c r="F412" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G412" s="1" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="H412" s="1" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="I412" s="1"/>
       <c r="J412" s="1"/>
@@ -9225,13 +9225,13 @@
         <v>39</v>
       </c>
       <c r="F413" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G413" s="1" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="H413" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="I413" s="1"/>
       <c r="J413" s="1"/>
@@ -9244,10 +9244,10 @@
     </row>
     <row r="414" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D414" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F414" s="1" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="G414" s="1"/>
       <c r="H414" s="1"/>
@@ -9264,10 +9264,10 @@
     </row>
     <row r="415" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B415" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C415" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="F415" s="1"/>
       <c r="G415" s="1"/>
@@ -9283,10 +9283,10 @@
     </row>
     <row r="416" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D416" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F416" s="1" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="G416" s="1"/>
       <c r="H416" s="1"/>
@@ -9294,7 +9294,7 @@
       <c r="J416" s="1"/>
       <c r="K416" s="1"/>
       <c r="L416" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="M416" s="1"/>
       <c r="N416" s="1"/>
@@ -9303,7 +9303,7 @@
     </row>
     <row r="417" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B417" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F417" s="1"/>
       <c r="G417" s="1"/>
@@ -9325,16 +9325,16 @@
     <row r="419" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A419" s="22"/>
       <c r="B419" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="420" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A420" s="18"/>
       <c r="B420" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C420" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="421" spans="1:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -9347,16 +9347,16 @@
         <v>36</v>
       </c>
       <c r="E422" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F422" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G422" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="H422" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
     </row>
     <row r="423" spans="1:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -9364,26 +9364,26 @@
         <v>146</v>
       </c>
       <c r="E423" t="s">
+        <v>372</v>
+      </c>
+      <c r="F423" t="s">
         <v>373</v>
-      </c>
-      <c r="F423" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="424" spans="1:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B424" t="s">
+        <v>374</v>
+      </c>
+      <c r="C424" t="s">
         <v>375</v>
-      </c>
-      <c r="C424" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="425" spans="1:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D425" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F425" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="L425">
         <v>9999</v>
@@ -9391,7 +9391,7 @@
     </row>
     <row r="426" spans="1:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B426" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="427" spans="1:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -9399,16 +9399,16 @@
         <v>36</v>
       </c>
       <c r="E427" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F427" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G427" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="H427" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
     </row>
     <row r="428" spans="1:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -9416,26 +9416,26 @@
         <v>146</v>
       </c>
       <c r="E428" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F428" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="429" spans="1:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B429" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C429" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="430" spans="1:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D430" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F430" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L430">
         <v>9999</v>
@@ -9443,7 +9443,7 @@
     </row>
     <row r="431" spans="1:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B431" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="432" spans="1:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -9451,16 +9451,16 @@
         <v>36</v>
       </c>
       <c r="E432" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F432" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="G432" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="H432" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
     </row>
     <row r="433" spans="1:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -9468,26 +9468,26 @@
         <v>146</v>
       </c>
       <c r="E433" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F433" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
     </row>
     <row r="434" spans="1:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B434" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C434" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
     </row>
     <row r="435" spans="1:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D435" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F435" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="L435">
         <v>9999</v>
@@ -9495,7 +9495,7 @@
     </row>
     <row r="436" spans="1:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B436" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="437" spans="1:12" x14ac:dyDescent="0.25">
@@ -9506,7 +9506,7 @@
     <row r="438" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A438" s="18"/>
       <c r="B438" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="439" spans="1:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14409,7 +14409,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B105" s="5" t="str">
         <f>"99999"</f>
@@ -15468,241 +15468,241 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B171" s="7" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C171" s="7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D171" s="7"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B172" s="7" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C172" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D172" s="7"/>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B173" s="7" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C173" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D173" s="7"/>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B174" s="5" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D174" s="5"/>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B175" s="5" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D175" s="5"/>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B176" s="5" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D176" s="5"/>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B177" s="5" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D177" s="5"/>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B178" s="5" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D178" s="5"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B179" s="5" t="str">
         <f>"6"</f>
         <v>6</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D179" s="5"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B180" s="5" t="str">
         <f>"7"</f>
         <v>7</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D180" s="5"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B181" s="5" t="str">
         <f>"8"</f>
         <v>8</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D181" s="5"/>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B182" s="5" t="str">
         <f>"9"</f>
         <v>9</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D182" s="5"/>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B183" s="5" t="str">
         <f>"10"</f>
         <v>10</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D183" s="5"/>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B184" s="7" t="str">
         <f>"9999"</f>
         <v>9999</v>
       </c>
       <c r="C184" s="7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D184" s="7"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B185" s="5" t="str">
         <f>"55"</f>
         <v>55</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D185" s="5"/>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B186" s="5" t="str">
         <f>"51"</f>
         <v>51</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D186" s="5"/>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B187" s="5" t="str">
         <f>"53"</f>
         <v>53</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D187" s="5"/>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B188" s="5" t="str">
         <f>"54"</f>
         <v>54</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D188" s="5"/>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B189" s="8" t="s">
         <v>301</v>
@@ -15714,307 +15714,307 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="D190" s="5" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="D191" s="5" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="D192" s="5" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="D193" s="5" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="D194" s="5" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="D195" s="5" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="D196" s="5" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="D197" s="5" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D198" s="5" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="D199" s="5" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="D200" s="5" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="D201" s="5" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="D202" s="5" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B203" s="5" t="s">
         <v>62</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D203" s="5" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B204" s="7" t="str">
         <f>"999"</f>
         <v>999</v>
       </c>
       <c r="C204" s="7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D204" s="7"/>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="5" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B205" s="5" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D205" s="5"/>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="5" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B206" s="5" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D206" s="5"/>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="5" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B207" s="5" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D207" s="5"/>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="5" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B208" s="5" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D208" s="5"/>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="7" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B209" s="7" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C209" s="7" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="D209" s="7"/>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="7" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B210" s="7" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C210" s="7" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D210" s="7"/>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="7" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B211" s="7" t="str">
         <f>"9"</f>
         <v>9</v>
       </c>
       <c r="C211" s="7" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D211" s="7"/>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="7" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B212" s="7" t="str">
         <f>"99"</f>
@@ -16029,119 +16029,119 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="5" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C213" s="5" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D213" s="5" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="5" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="D214" s="5" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="5" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="D215" s="5" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="5" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="D216" s="5" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="5" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="D217" s="5" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="5" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="D218" s="5" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="5" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="D219" s="5" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="5" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="C220" s="5" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="D220" s="5" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="7" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="B221" s="7" t="s">
         <v>62</v>
@@ -16155,32 +16155,32 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="34" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B222" s="5" t="s">
         <v>232</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D222" s="5"/>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="7" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="B223" s="7" t="str">
         <f>"88888"</f>
         <v>88888</v>
       </c>
       <c r="C223" s="7" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D223" s="7"/>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="7" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="B224" s="7" t="str">
         <f>"99999"</f>
@@ -16291,10 +16291,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49955335-AC2E-46D7-A127-46FEF28BC146}">
-  <dimension ref="A1:D170"/>
+  <dimension ref="A1:D172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="A112" sqref="A1:C1048576"/>
+    <sheetView topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="A124" sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16335,7 +16335,7 @@
         <v>235</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>306</v>
+        <v>36</v>
       </c>
       <c r="C3" s="10" t="b">
         <v>0</v>
@@ -16343,10 +16343,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>307</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>308</v>
       </c>
       <c r="C4" s="10" t="b">
         <v>0</v>
@@ -16354,10 +16354,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C5" s="10" t="b">
         <v>0</v>
@@ -16365,7 +16365,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>8</v>
@@ -16376,7 +16376,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>8</v>
@@ -16387,7 +16387,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>8</v>
@@ -16409,7 +16409,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>20</v>
@@ -16420,7 +16420,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>8</v>
@@ -16431,7 +16431,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>9</v>
@@ -16442,7 +16442,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>9</v>
@@ -16453,7 +16453,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>9</v>
@@ -16464,7 +16464,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>36</v>
@@ -16475,7 +16475,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>36</v>
@@ -16486,10 +16486,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C17" s="10" t="b">
         <v>0</v>
@@ -16497,7 +16497,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>36</v>
@@ -16508,10 +16508,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C19" s="10" t="b">
         <v>0</v>
@@ -16519,7 +16519,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>20</v>
@@ -16530,7 +16530,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>8</v>
@@ -16541,7 +16541,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>8</v>
@@ -16552,7 +16552,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>8</v>
@@ -16563,7 +16563,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>20</v>
@@ -16574,7 +16574,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>21</v>
@@ -16585,7 +16585,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>9</v>
@@ -16596,7 +16596,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>20</v>
@@ -16607,7 +16607,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>8</v>
@@ -16618,7 +16618,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>20</v>
@@ -16640,7 +16640,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>9</v>
@@ -16651,7 +16651,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B32" s="10" t="s">
         <v>20</v>
@@ -16662,7 +16662,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>8</v>
@@ -16673,7 +16673,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B34" s="10" t="s">
         <v>8</v>
@@ -16684,7 +16684,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B35" s="10" t="s">
         <v>8</v>
@@ -16695,10 +16695,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C36" s="10" t="b">
         <v>0</v>
@@ -16706,7 +16706,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B37" s="10" t="s">
         <v>21</v>
@@ -16717,7 +16717,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B38" s="10" t="s">
         <v>9</v>
@@ -16739,7 +16739,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B40" s="10" t="s">
         <v>8</v>
@@ -16750,7 +16750,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B41" s="10" t="s">
         <v>21</v>
@@ -16761,7 +16761,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B42" s="10" t="s">
         <v>21</v>
@@ -16772,7 +16772,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="B43" s="10" t="s">
         <v>20</v>
@@ -16783,7 +16783,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B44" s="10" t="s">
         <v>9</v>
@@ -16794,7 +16794,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B45" s="10" t="s">
         <v>8</v>
@@ -16805,7 +16805,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B46" s="10" t="s">
         <v>9</v>
@@ -16816,7 +16816,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B47" s="10" t="s">
         <v>8</v>
@@ -16827,7 +16827,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B48" s="10" t="s">
         <v>20</v>
@@ -16838,7 +16838,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B49" s="10" t="s">
         <v>20</v>
@@ -16849,7 +16849,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B50" s="10" t="s">
         <v>20</v>
@@ -16860,10 +16860,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C51" s="10" t="b">
         <v>0</v>
@@ -16871,7 +16871,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B52" s="10" t="s">
         <v>9</v>
@@ -16882,7 +16882,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B53" s="10" t="s">
         <v>21</v>
@@ -16893,7 +16893,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B54" s="10" t="s">
         <v>8</v>
@@ -16904,7 +16904,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B55" s="10" t="s">
         <v>8</v>
@@ -16915,7 +16915,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B56" s="10" t="s">
         <v>21</v>
@@ -16926,7 +16926,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B57" s="10" t="s">
         <v>21</v>
@@ -16937,7 +16937,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B58" s="10" t="s">
         <v>21</v>
@@ -16948,7 +16948,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B59" s="10" t="s">
         <v>21</v>
@@ -16959,7 +16959,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B60" s="10" t="s">
         <v>21</v>
@@ -16970,7 +16970,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B61" s="10" t="s">
         <v>21</v>
@@ -16981,7 +16981,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B62" s="10" t="s">
         <v>21</v>
@@ -16992,7 +16992,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B63" s="10" t="s">
         <v>21</v>
@@ -17003,7 +17003,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B64" s="10" t="s">
         <v>21</v>
@@ -17014,7 +17014,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B65" s="10" t="s">
         <v>21</v>
@@ -17025,7 +17025,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B66" s="10" t="s">
         <v>21</v>
@@ -17036,7 +17036,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B67" s="10" t="s">
         <v>21</v>
@@ -17674,7 +17674,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="12" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B125" s="12" t="s">
         <v>9</v>
@@ -17685,7 +17685,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B126" s="12" t="s">
         <v>8</v>
@@ -17696,7 +17696,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="12" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B127" s="12" t="s">
         <v>8</v>
@@ -17707,7 +17707,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="12" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="B128" s="12" t="s">
         <v>8</v>
@@ -17718,7 +17718,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="15" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B129" s="16" t="s">
         <v>146</v>
@@ -17729,7 +17729,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="15" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B130" s="16" t="s">
         <v>146</v>
@@ -17740,7 +17740,7 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="15" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="B131" s="16" t="s">
         <v>146</v>
@@ -17751,7 +17751,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="33" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="B132" s="33" t="s">
         <v>20</v>
@@ -17762,7 +17762,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="33" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="B133" s="33" t="s">
         <v>8</v>
@@ -17773,7 +17773,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="33" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="B134" s="33" t="s">
         <v>8</v>
@@ -17784,7 +17784,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="33" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="B135" s="33" t="s">
         <v>9</v>
@@ -17795,7 +17795,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="33" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B136" s="33" t="s">
         <v>9</v>
@@ -17806,7 +17806,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="33" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B137" s="33" t="s">
         <v>9</v>
@@ -17817,7 +17817,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="31" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="B138" s="31" t="s">
         <v>146</v>
@@ -17827,52 +17827,52 @@
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" s="28" t="s">
-        <v>797</v>
-      </c>
-      <c r="B139" s="28" t="s">
+      <c r="A139" s="31" t="s">
+        <v>836</v>
+      </c>
+      <c r="B139" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C139" s="31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="31" t="s">
+        <v>798</v>
+      </c>
+      <c r="B140" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C140" s="31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="28" t="s">
+        <v>792</v>
+      </c>
+      <c r="B141" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C139" s="28" t="b">
+      <c r="C141" s="28" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" s="28" t="s">
-        <v>608</v>
-      </c>
-      <c r="B140" s="28" t="s">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="28" t="s">
+        <v>606</v>
+      </c>
+      <c r="B142" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C140" s="28" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" s="18" t="s">
-        <v>836</v>
-      </c>
-      <c r="B141" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C141" s="18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="B142" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C142" s="18" t="b">
+      <c r="C142" s="28" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="18" t="s">
-        <v>607</v>
+        <v>831</v>
       </c>
       <c r="B143" s="18" t="s">
         <v>8</v>
@@ -17883,7 +17883,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="18" t="s">
-        <v>823</v>
+        <v>602</v>
       </c>
       <c r="B144" s="18" t="s">
         <v>8</v>
@@ -17894,10 +17894,10 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="18" t="s">
-        <v>632</v>
+        <v>605</v>
       </c>
       <c r="B145" s="18" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C145" s="18" t="b">
         <v>0</v>
@@ -17905,10 +17905,10 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="18" t="s">
-        <v>633</v>
+        <v>818</v>
       </c>
       <c r="B146" s="18" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C146" s="18" t="b">
         <v>0</v>
@@ -17916,7 +17916,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="18" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="B147" s="18" t="s">
         <v>20</v>
@@ -17927,7 +17927,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="18" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
       <c r="B148" s="18" t="s">
         <v>20</v>
@@ -17941,7 +17941,7 @@
         <v>623</v>
       </c>
       <c r="B149" s="18" t="s">
-        <v>308</v>
+        <v>20</v>
       </c>
       <c r="C149" s="18" t="b">
         <v>0</v>
@@ -17949,7 +17949,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="18" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="B150" s="18" t="s">
         <v>20</v>
@@ -17960,10 +17960,10 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="18" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B151" s="18" t="s">
-        <v>20</v>
+        <v>307</v>
       </c>
       <c r="C151" s="18" t="b">
         <v>0</v>
@@ -17971,7 +17971,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="18" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="B152" s="18" t="s">
         <v>20</v>
@@ -17982,10 +17982,10 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="18" t="s">
-        <v>385</v>
+        <v>620</v>
       </c>
       <c r="B153" s="18" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C153" s="18" t="b">
         <v>0</v>
@@ -17993,10 +17993,10 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="18" t="s">
-        <v>395</v>
+        <v>622</v>
       </c>
       <c r="B154" s="18" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C154" s="18" t="b">
         <v>0</v>
@@ -18004,10 +18004,10 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="18" t="s">
-        <v>628</v>
+        <v>384</v>
       </c>
       <c r="B155" s="18" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="C155" s="18" t="b">
         <v>0</v>
@@ -18015,10 +18015,10 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="18" t="s">
-        <v>634</v>
+        <v>394</v>
       </c>
       <c r="B156" s="18" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="C156" s="18" t="b">
         <v>0</v>
@@ -18026,40 +18026,40 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="18" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B157" s="18" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="C157" s="18" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158" s="20" t="s">
-        <v>605</v>
-      </c>
-      <c r="B158" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="C158" s="19" t="b">
-        <v>1</v>
+      <c r="A158" s="18" t="s">
+        <v>632</v>
+      </c>
+      <c r="B158" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C158" s="18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159" s="20" t="s">
-        <v>606</v>
-      </c>
-      <c r="B159" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="C159" s="19" t="b">
-        <v>1</v>
+      <c r="A159" s="18" t="s">
+        <v>625</v>
+      </c>
+      <c r="B159" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C159" s="18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="20" t="s">
-        <v>824</v>
+        <v>603</v>
       </c>
       <c r="B160" s="19" t="s">
         <v>146</v>
@@ -18070,7 +18070,7 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="20" t="s">
-        <v>641</v>
+        <v>604</v>
       </c>
       <c r="B161" s="19" t="s">
         <v>146</v>
@@ -18080,19 +18080,19 @@
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162" s="19" t="s">
-        <v>813</v>
+      <c r="A162" s="20" t="s">
+        <v>819</v>
       </c>
       <c r="B162" s="19" t="s">
-        <v>20</v>
+        <v>146</v>
       </c>
       <c r="C162" s="19" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163" s="19" t="s">
-        <v>642</v>
+      <c r="A163" s="20" t="s">
+        <v>639</v>
       </c>
       <c r="B163" s="19" t="s">
         <v>146</v>
@@ -18102,11 +18102,11 @@
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164" s="20" t="s">
-        <v>640</v>
+      <c r="A164" s="19" t="s">
+        <v>808</v>
       </c>
       <c r="B164" s="19" t="s">
-        <v>146</v>
+        <v>20</v>
       </c>
       <c r="C164" s="19" t="b">
         <v>1</v>
@@ -18114,7 +18114,7 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="19" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="B165" s="19" t="s">
         <v>146</v>
@@ -18124,8 +18124,8 @@
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166" s="19" t="s">
-        <v>814</v>
+      <c r="A166" s="20" t="s">
+        <v>638</v>
       </c>
       <c r="B166" s="19" t="s">
         <v>146</v>
@@ -18136,7 +18136,7 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="19" t="s">
-        <v>396</v>
+        <v>641</v>
       </c>
       <c r="B167" s="19" t="s">
         <v>146</v>
@@ -18147,10 +18147,10 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="19" t="s">
-        <v>825</v>
+        <v>809</v>
       </c>
       <c r="B168" s="19" t="s">
-        <v>36</v>
+        <v>146</v>
       </c>
       <c r="C168" s="19" t="b">
         <v>1</v>
@@ -18158,7 +18158,7 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="19" t="s">
-        <v>826</v>
+        <v>395</v>
       </c>
       <c r="B169" s="19" t="s">
         <v>146</v>
@@ -18169,17 +18169,39 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="19" t="s">
-        <v>644</v>
+        <v>820</v>
       </c>
       <c r="B170" s="19" t="s">
-        <v>146</v>
+        <v>36</v>
       </c>
       <c r="C170" s="19" t="b">
         <v>1</v>
       </c>
     </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="19" t="s">
+        <v>821</v>
+      </c>
+      <c r="B171" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="C171" s="19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="19" t="s">
+        <v>642</v>
+      </c>
+      <c r="B172" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="C172" s="19" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A131:C149">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A131:C151">
     <sortCondition ref="A131"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
